--- a/8 DesignAnABTest/L3- Empirical Variance Quiz Data.xlsx
+++ b/8 DesignAnABTest/L3- Empirical Variance Quiz Data.xlsx
@@ -74,10 +74,12 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -125,11 +127,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,14 +426,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -446,7 +448,7 @@
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -479,10 +481,10 @@
         <f t="shared" ref="C4:C42" si="0">A4-B4</f>
         <v>0</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="5">
         <v>-6.0000000000000012E-2</v>
       </c>
     </row>
@@ -497,7 +499,7 @@
         <f t="shared" si="0"/>
         <v>9.0000000000000011E-2</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G5">
@@ -519,7 +521,7 @@
         <f t="shared" si="0"/>
         <v>-2.0000000000000004E-2</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G6">
@@ -541,7 +543,7 @@
         <f t="shared" si="0"/>
         <v>-1.0000000000000009E-2</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G7">
@@ -563,7 +565,7 @@
         <f t="shared" si="0"/>
         <v>3.9999999999999994E-2</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G8">
@@ -600,7 +602,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J10">
@@ -618,7 +620,7 @@
         <f t="shared" si="0"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G11">
@@ -640,7 +642,7 @@
         <f t="shared" si="0"/>
         <v>-6.0000000000000012E-2</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G12">
@@ -661,7 +663,7 @@
         <f t="shared" si="0"/>
         <v>4.9999999999999996E-2</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G13">
@@ -1087,7 +1089,7 @@
         <f t="shared" si="0"/>
         <v>2.0000000000000004E-2</v>
       </c>
-      <c r="J41" s="7">
+      <c r="J41" s="5">
         <v>0.08</v>
       </c>
     </row>
